--- a/spec/data/user_import_test_files/user.xlsx
+++ b/spec/data/user_import_test_files/user.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="_e7_94_a8_e6_88_b7_e7_ae_a1_e7_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>aaa3</t>
   </si>
@@ -33,9 +32,6 @@
   </si>
   <si>
     <t>hello1</t>
-  </si>
-  <si>
-    <t>密码</t>
   </si>
   <si>
     <t>hi3@gmail.com</t>
@@ -60,46 +56,49 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="SimSun"/>
-      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="0"/>
-      <color rgb="FF0000FF"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,131 +119,69 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" applyFont="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="1"/>
     <cellStyle name="Comma[0]" xfId="2"/>
     <cellStyle name="Currency" xfId="3"/>
     <cellStyle name="Currency[0]" xfId="4"/>
-    <cellStyle name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="5"/>
+    <cellStyle name="Percent" xfId="6"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -290,7 +227,7 @@
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
@@ -324,7 +261,7 @@
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
@@ -386,16 +323,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="65000">
+              <a:schemeClr val="phClr">
+                <a:shade val="85000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -403,7 +344,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -418,7 +359,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -428,16 +369,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="64000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -446,22 +387,22 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
             <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="matte">
+            <a:bevelT h="22225"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -473,27 +414,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="50000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:shade val="75000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -524,21 +462,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.160156" style="0" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="0" customWidth="1"/>
-    <col min="3" max="3" width="33.414062" style="0" customWidth="1"/>
-    <col min="4" max="4" width="35.26172" style="0" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -546,13 +483,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" ht="14.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -560,49 +494,40 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1234</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.5">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1234</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.5">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1234</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
